--- a/ffinst/1.0.0/ValueSet-EQ5DSCTfindingsPain.xlsx
+++ b/ffinst/1.0.0/ValueSet-EQ5DSCTfindingsPain.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-26T16:15:04+02:00</t>
+    <t>2023-08-27T10:22:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
